--- a/downloaded_files/CMPS402_Tutorial-35541.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,15 +132,6 @@
     <x:t>Omar Ahmed Reda Abdel Kader Ismail</x:t>
   </x:si>
   <x:si>
-    <x:t>1210260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد ماهر قداح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Maher Kaddah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220017</x:t>
   </x:si>
   <x:si>
@@ -256,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور نادر محمد الحسينى سيد خليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
   </x:si>
   <x:si>
     <x:t>1220211</x:t>
@@ -425,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1168,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.3245987269</x:v>
+        <x:v>45906.6644042014</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644042014</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45906.6647888889</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647888889</x:v>
+        <x:v>45906.4386726505</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4386726505</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45914.0324684375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.0324684375</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45912.3248138079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.3248138079</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1729,70 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45912.3246596065</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35541.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Yusuf Ayman Mohammad Yosry Ateyya</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف شريف امين محمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Sherif Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1210343</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.3248138079</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35541.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Hazem yasser elsayed hassan salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1210137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد هشام فهمي محمد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210013</x:t>
   </x:si>
   <x:si>
@@ -114,15 +105,6 @@
     <x:t>AlaaEldin Hamed Mohamed Mahmoud Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي علاء عبدالعزيز نيازي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220130</x:t>
   </x:si>
   <x:si>
@@ -168,6 +150,15 @@
     <x:t>Amr Ayman Farouck Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4220133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210280</x:t>
   </x:si>
   <x:si>
@@ -177,15 +168,6 @@
     <x:t>Karim Ayman Nabil Hasseb Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد سيد محمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed ahmed sayed mohamed awad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220195</x:t>
   </x:si>
   <x:si>
@@ -229,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1190535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نهى وائل ابراهيم ابراهيم الكردى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Noha Wael Ibrahim Ibrahim Elkordy</x:t>
   </x:si>
   <x:si>
     <x:t>4220145</x:t>
@@ -398,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -708,7 +681,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="55.420625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -917,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.4145680208</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4145680208</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.3249193287</x:v>
+        <x:v>45906.6644042014</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644042014</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.6647888889</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647888889</x:v>
+        <x:v>45906.4386726505</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4386726505</x:v>
+        <x:v>45914.0324684375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.0324684375</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1574,102 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45909.4154013542</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45912.3246596065</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35541.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Ayman Nabil Hasseb Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن محمد سيد خليفه احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1220195</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1242,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.0324684375</x:v>
+        <x:v>45927.6911740741</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45914.0324684375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35541.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Khaled Elsaid Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح مصيلحي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1220071</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1123,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45906.6647888889</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6647888889</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4714578704</x:v>
+        <x:v>45906.4386726505</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4386726505</x:v>
+        <x:v>45927.6911740741</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.6911740741</x:v>
+        <x:v>45914.0324684375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.0324684375</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35541.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Karim Ayman Nabil Hasseb Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مازن محمد سيد خليفه احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1220195</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1210,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.6911740741</x:v>
+        <x:v>45914.0324684375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.0324684375</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35541.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Ayman Nabil Hasseb Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdalla</x:t>
   </x:si>
   <x:si>
     <x:t>1220195</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.0324684375</x:v>
+        <x:v>45929.6013495718</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45914.0324684375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Tutorial-35541.xlsx
+++ b/downloaded_files/CMPS402_Tutorial-35541.xlsx
@@ -162,10 +162,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1220195</x:t>
@@ -679,7 +679,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="55.420625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
